--- a/csharp/ConsultaCotacaoMoedas/Config.xlsx
+++ b/csharp/ConsultaCotacaoMoedas/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\vb\ConsultaCotacaoMoedas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RPA-UiPath\csharp\ConsultaCotacaoMoedas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E93355F-87B5-4785-A023-224EBE575A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91675568-1647-41A5-B62F-708D2DCCA9E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="672" windowWidth="17280" windowHeight="8964" xr2:uid="{E14DF615-E421-4C5E-8325-6D1F385B09B3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nome</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>MailDestinatario</t>
-  </si>
-  <si>
-    <t>robson.azevedo@project42.com.br</t>
   </si>
   <si>
     <t>https://www4.bcb.gov.br/pec/taxas/port/ptaxnpesq.asp?frame=1</t>
@@ -452,7 +449,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -514,16 +511,14 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -531,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -539,9 +534,8 @@
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{4D8909EA-33A2-4675-B33B-8436C8BA739F}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{2633F261-FCB5-4ADD-AB4B-20CB8BD2BBB2}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{AD32DF2F-D873-432C-BCBF-0053EAB0CB97}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{2633F261-FCB5-4ADD-AB4B-20CB8BD2BBB2}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{AD32DF2F-D873-432C-BCBF-0053EAB0CB97}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -554,15 +548,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A9E9645978B5844CA888D9C3D494C6DB" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="033eefd0a2e542aba2c80cb1d1e203f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="80f348f4-eb38-4915-8532-fb89f24e0a83" xmlns:ns4="5ac12aa8-b1a9-47e2-8255-127c4fab66c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6b92b84797914f19778813792c7ed64" ns3:_="" ns4:_="">
     <xsd:import namespace="80f348f4-eb38-4915-8532-fb89f24e0a83"/>
@@ -771,6 +756,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723FA4C4-756A-4D22-B614-E1B5D6FBEBE4}">
   <ds:schemaRefs>
@@ -781,14 +775,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68F8AD07-25AF-44BC-90F9-89D02F796638}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFBAD8E-4F6C-4003-961C-600BCE481799}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -805,4 +791,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68F8AD07-25AF-44BC-90F9-89D02F796638}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>